--- a/medicine/Mort/Cimetière_de_l'Est_(Angers)/Cimetière_de_l'Est_(Angers).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_(Angers)/Cimetière_de_l'Est_(Angers).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Angers)</t>
+          <t>Cimetière_de_l'Est_(Angers)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l'Est est un cimetière ouvert en 1834 à Angers. Par la nature de son environnement et par l'importance des personnalités enterrées, le cimetière de l'est d'Angers est surnommé le Père-Lachaise angevin. Le cimetière de l'Est est situé à l'angle de la rue Larevellière et du boulevard des Deux-Croix, dans le quartier du Grand-Pigeon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Angers)</t>
+          <t>Cimetière_de_l'Est_(Angers)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est en 1834 que le conseil municipal d'Angers décida l'ouverture d'un nouveau cimetière, à l’est de la ville, sur le chemin d’Angers à Saint-Barthélemy-d'Anjou.
 Anciennes propriétés agricoles, l’endroit est clos de grands murs. Le cimetière, de forme triangulaire, figure au cadastre de 1842. Les plantations existantes sont complétées et des allées sont tracées. Le nouveau cimetière angevin apparaît comme un parc romantique, à l’anglaise, rappelant le Père-Lachaise de Paris. Le cimetière est parcellisé en huit rectangles symétriques, chacun enveloppé par un réseau d’allées sinueuses. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Angers)</t>
+          <t>Cimetière_de_l'Est_(Angers)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste non exhaustive)
 Alexandre Aïvas (1829-1909), architecte
